--- a/Documentaion/_ Appendices _/APIs Appendix.xlsx
+++ b/Documentaion/_ Appendices _/APIs Appendix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A075BB2-3872-44A5-8CFA-52F8210D465D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB8F5F-0126-4913-87DF-6D5BA7A13AA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -202,28 +202,6 @@
     <t>Added customer object which containes  the following configuration:Id,Name,ISPN,Status,Address,Numbers[],Services[]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;Base_API_URL&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/api/customers/{id}</t>
-    </r>
-  </si>
-  <si>
     <t>Deactivated customer object which containes  the following configuration:Id,Name,ISPN,Status,Address,Numbers[],Services[]</t>
   </si>
   <si>
@@ -257,6 +235,72 @@
   </si>
   <si>
     <t>CustomersController</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Base_API_URL&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/api/customers/post</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Base_API_URL&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/api/customers/put/{id}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Base_API_URL&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/api/customers/deactivate/{id}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -453,38 +497,6 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -503,6 +515,22 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -543,13 +571,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -566,6 +610,22 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -600,7 +660,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -616,11 +676,10 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -632,25 +691,10 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -691,18 +735,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3D76158-485E-4EBF-AE55-60FAC3ACD011}" name="Table1" displayName="Table1" ref="A1:I14" headerRowDxfId="13" dataDxfId="11" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3D76158-485E-4EBF-AE55-60FAC3ACD011}" name="Table1" displayName="Table1" ref="A1:I14" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11">
   <autoFilter ref="A1:I14" xr:uid="{13886B6A-2C5D-4513-82BB-840D631B97F7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D66C7979-71E8-4178-960A-A59EED55B0F1}" name="Controller" totalsRowLabel="Total" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CEB4FD59-0469-4607-8956-451A4576ED58}" name="Name" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{12A76C4F-9AD1-4099-9925-3734E4A98D8D}" name="Request Method" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F6D1F65B-AEA3-429D-991A-619DCF88B79B}" name="Parameters" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{958C01CA-1D9F-4B69-8B55-C4B0335EEE13}" name="Return" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{17DC0388-41B3-4048-A020-DB3B7DA6CDBA}" name="Call URL" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{70332A9E-6D51-4D76-82FF-FF7DDBDC0BA9}" name="Description" totalsRowFunction="count" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{05E11889-56F8-4617-A644-2504E30D046A}" name="Request Body Sample (JSON)" dataDxfId="4" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E80B1076-9A2D-49D8-AC19-D1AF34DC9079}" name="Response Sample (JSON)" dataDxfId="5" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D66C7979-71E8-4178-960A-A59EED55B0F1}" name="Controller" totalsRowLabel="Total" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CEB4FD59-0469-4607-8956-451A4576ED58}" name="Name" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{12A76C4F-9AD1-4099-9925-3734E4A98D8D}" name="Request Method" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F6D1F65B-AEA3-429D-991A-619DCF88B79B}" name="Parameters" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{958C01CA-1D9F-4B69-8B55-C4B0335EEE13}" name="Return" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{17DC0388-41B3-4048-A020-DB3B7DA6CDBA}" name="Call URL" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{70332A9E-6D51-4D76-82FF-FF7DDBDC0BA9}" name="Description" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{05E11889-56F8-4617-A644-2504E30D046A}" name="Request Body Sample (JSON)" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E80B1076-9A2D-49D8-AC19-D1AF34DC9079}" name="Response Sample (JSON)" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -973,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1065,7 @@
     </row>
     <row r="2" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
@@ -1046,7 +1090,7 @@
     </row>
     <row r="3" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>14</v>
@@ -1073,7 +1117,7 @@
     </row>
     <row r="4" spans="1:9" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
@@ -1086,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
@@ -1100,7 +1144,7 @@
     </row>
     <row r="5" spans="1:9" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>26</v>
@@ -1115,21 +1159,21 @@
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
@@ -1141,13 +1185,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="8"/>
